--- a/Stock Screener.xlsx
+++ b/Stock Screener.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Stock_Manager_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8F837E-1A6D-430A-8F68-0D07320CD3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D7C6E3-8951-4A4B-A0B3-0D1F9D4918C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{84FCC0F4-8E89-43B1-8DEA-F8CA23A588FC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>Ticker</t>
   </si>
@@ -51,9 +51,6 @@
   <si>
     <t>Total
 Score</t>
-  </si>
-  <si>
-    <t>STOCK EVALUATION</t>
   </si>
   <si>
     <t>ON</t>
@@ -185,9 +182,17 @@
 (1 - 5)</t>
   </si>
   <si>
-    <t>Stock Manager
-Total Score
-(0 - 56)</t>
+    <t>World PE Ratio
+(https://worldperatio.com/sp-500-sectors/)</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -288,7 +293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -592,11 +597,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -611,15 +625,6 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -683,6 +688,15 @@
     <xf numFmtId="164" fontId="7" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -692,13 +706,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1031,427 +1042,444 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF1E3C9-2443-431B-AB8B-4EF10572E85D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.75" style="4" customWidth="1"/>
-    <col min="10" max="12" width="10.625" style="4" customWidth="1"/>
-    <col min="13" max="14" width="9.125" style="4" customWidth="1"/>
-    <col min="15" max="16" width="10.625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="12.625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="10.625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="17.75" customWidth="1"/>
+    <col min="1" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.75" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.75" style="4" customWidth="1"/>
+    <col min="11" max="13" width="10.625" style="4" customWidth="1"/>
+    <col min="14" max="15" width="9.125" style="4" customWidth="1"/>
+    <col min="16" max="17" width="10.625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="12.625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="10.625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:19" s="3" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="29"/>
+    </row>
+    <row r="2" spans="1:19" ht="95.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="25">
+        <v>45500</v>
+      </c>
+      <c r="F3" s="16">
+        <v>113.06</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="13">
+        <f>SUM(H3:R3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="25">
+        <v>45500</v>
+      </c>
+      <c r="F4" s="16">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="13">
+        <f>SUM(H4:R4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="14">
+        <f>SUM(H5:R5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="14">
+        <f>SUM(H6:R6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="14">
+        <f>SUM(H7:R7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="14">
+        <f>SUM(H8:R8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="14">
+        <f>SUM(H9:R9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="14">
+        <f>SUM(H10:R10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="35"/>
+      <c r="D11" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="14">
+        <f>SUM(H11:R11)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" ht="95.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="30" t="s">
+    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="14">
+        <f>SUM(H12:R12)</f>
         <v>0</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="3" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+    <row r="13" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="28">
-        <v>45500</v>
-      </c>
-      <c r="E3" s="19">
-        <v>113.06</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="16">
-        <f>SUM(F3:Q3)</f>
+      <c r="B13" s="34"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="15">
+        <f>SUM(H13:R13)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="28">
-        <v>45500</v>
-      </c>
-      <c r="E4" s="19">
-        <v>19.760000000000002</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="16">
-        <f>SUM(F4:Q4)</f>
-        <v>0</v>
+    <row r="14" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L25" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="17">
-        <f t="shared" ref="R5:R13" si="0">SUM(F5:Q5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:R1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="R3:R13">
+  <conditionalFormatting sqref="S3:S13">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1470,12 +1498,12 @@
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R5:R12">
+  <conditionalFormatting sqref="S5:S12">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThanOrEqual">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T16:T17">
+  <conditionalFormatting sqref="U16:U17">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/Stock Screener.xlsx
+++ b/Stock Screener.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Stock_Manager_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D7C6E3-8951-4A4B-A0B3-0D1F9D4918C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA949E4-27DD-42C1-B538-2548A0B58954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{84FCC0F4-8E89-43B1-8DEA-F8CA23A588FC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Steps" sheetId="2" r:id="rId1"/>
+    <sheet name="Screener" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Ticker</t>
   </si>
@@ -72,11 +73,6 @@
   </si>
   <si>
     <t>WELL</t>
-  </si>
-  <si>
-    <t>Portfolio
-or
-New</t>
   </si>
   <si>
     <t>Portfolio</t>
@@ -189,10 +185,19 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
-    <t>d</t>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Screener</t>
+  </si>
+  <si>
+    <t>Steps:</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>1. Perform Sector P/E Eevalueation -&gt; https://worldperatio.com/sp-500-sectors/</t>
   </si>
 </sst>
 </file>
@@ -598,19 +603,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="double">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -688,15 +699,6 @@
     <xf numFmtId="164" fontId="7" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -708,6 +710,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1040,132 +1051,164 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C0C909-86ED-4F20-B482-1769C359BDDC}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF1E3C9-2443-431B-AB8B-4EF10572E85D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="10.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.75" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.75" style="4" customWidth="1"/>
-    <col min="11" max="13" width="10.625" style="4" customWidth="1"/>
-    <col min="14" max="15" width="9.125" style="4" customWidth="1"/>
-    <col min="16" max="17" width="10.625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="12.625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="10.625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="17.75" customWidth="1"/>
+    <col min="1" max="4" width="10.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.75" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.75" style="4" customWidth="1"/>
+    <col min="12" max="14" width="10.625" style="4" customWidth="1"/>
+    <col min="15" max="16" width="9.125" style="4" customWidth="1"/>
+    <col min="17" max="18" width="10.625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="12.625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="10.625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:20" s="3" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="29"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="33"/>
     </row>
-    <row r="2" spans="1:19" ht="95.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:20" ht="95.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32" t="s">
+      <c r="B3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="25">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="25">
         <v>45500</v>
       </c>
-      <c r="F3" s="16">
+      <c r="G3" s="16">
         <v>113.06</v>
       </c>
-      <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -1177,29 +1220,30 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
-      <c r="S3" s="13">
-        <f>SUM(H3:R3)</f>
+      <c r="S3" s="8"/>
+      <c r="T3" s="13">
+        <f t="shared" ref="T3:T13" si="0">SUM(I3:S3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="25">
+      <c r="F4" s="25">
         <v>45500</v>
       </c>
-      <c r="F4" s="16">
+      <c r="G4" s="16">
         <v>19.760000000000002</v>
       </c>
-      <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -1211,25 +1255,26 @@
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
-      <c r="S4" s="13">
-        <f>SUM(H4:R4)</f>
+      <c r="S4" s="8"/>
+      <c r="T4" s="13">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="9"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -1241,21 +1286,22 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
-      <c r="S5" s="14">
-        <f>SUM(H5:R5)</f>
+      <c r="S5" s="9"/>
+      <c r="T5" s="14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="17"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -1267,21 +1313,22 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
-      <c r="S6" s="14">
-        <f>SUM(H6:R6)</f>
+      <c r="S6" s="9"/>
+      <c r="T6" s="14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -1293,23 +1340,24 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
-      <c r="S7" s="14">
-        <f>SUM(H7:R7)</f>
+      <c r="S7" s="9"/>
+      <c r="T7" s="14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1321,25 +1369,26 @@
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
-      <c r="S8" s="14">
-        <f>SUM(H8:R8)</f>
+      <c r="S8" s="9"/>
+      <c r="T8" s="14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="9"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1351,25 +1400,26 @@
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
-      <c r="S9" s="14">
-        <f>SUM(H9:R9)</f>
+      <c r="S9" s="9"/>
+      <c r="T9" s="14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="9"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="17"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1381,25 +1431,26 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
-      <c r="S10" s="14">
-        <f>SUM(H10:R10)</f>
+      <c r="S10" s="9"/>
+      <c r="T10" s="14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="9"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1411,25 +1462,26 @@
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
-      <c r="S11" s="14">
-        <f>SUM(H11:R11)</f>
+      <c r="S11" s="9"/>
+      <c r="T11" s="14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="9"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1441,21 +1493,22 @@
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
-      <c r="S12" s="14">
-        <f>SUM(H12:R12)</f>
+      <c r="S12" s="9"/>
+      <c r="T12" s="14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="34"/>
+    <row r="13" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="23"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="10"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -1467,19 +1520,15 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
-      <c r="S13" s="15">
-        <f>SUM(H13:R13)</f>
+      <c r="S13" s="10"/>
+      <c r="T13" s="15">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L25" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
+    <row r="14" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="S3:S13">
+  <conditionalFormatting sqref="T3:T13">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1498,12 +1547,12 @@
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S5:S12">
+  <conditionalFormatting sqref="T5:T12">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThanOrEqual">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U16:U17">
+  <conditionalFormatting sqref="V16:V17">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/Stock Screener.xlsx
+++ b/Stock Screener.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Stock_Manager_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA949E4-27DD-42C1-B538-2548A0B58954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C509AF6E-6E80-4CA8-8275-EF01BD5094AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{84FCC0F4-8E89-43B1-8DEA-F8CA23A588FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{84FCC0F4-8E89-43B1-8DEA-F8CA23A588FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps" sheetId="2" r:id="rId1"/>
@@ -711,9 +711,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1054,7 +1054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C0C909-86ED-4F20-B482-1769C359BDDC}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1085,7 +1085,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Stock Screener.xlsx
+++ b/Stock Screener.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Stock_Manager_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C509AF6E-6E80-4CA8-8275-EF01BD5094AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8886578-8EA7-4F12-B45A-DE32DDB67431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{84FCC0F4-8E89-43B1-8DEA-F8CA23A588FC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -159,12 +159,6 @@
 (1 - 10)</t>
   </si>
   <si>
-    <t>MPC</t>
-  </si>
-  <si>
-    <t>Maration Petorleum</t>
-  </si>
-  <si>
     <t>Yahoo
 Finance
 Total ESG Risk
@@ -185,19 +179,40 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>Screener</t>
   </si>
   <si>
     <t>Steps:</t>
   </si>
   <si>
-    <t>Industry</t>
-  </si>
-  <si>
     <t>1. Perform Sector P/E Eevalueation -&gt; https://worldperatio.com/sp-500-sectors/</t>
+  </si>
+  <si>
+    <t>Stock Screener</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>Advanced Micro Devices</t>
+  </si>
+  <si>
+    <t>SCHD</t>
+  </si>
+  <si>
+    <t>Schwab US Dividened Equity ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financials,
+Health Care
+&amp;
+Cosumer Staples </t>
+  </si>
+  <si>
+    <t>Information Tech.</t>
+  </si>
+  <si>
+    <t>18.30, 33.49, 23.53</t>
   </si>
 </sst>
 </file>
@@ -621,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -681,9 +696,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -708,12 +720,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -722,6 +729,24 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1061,18 +1086,18 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="31" t="s">
-        <v>36</v>
+      <c r="A1" s="29" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>37</v>
+      <c r="A2" s="31" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
-        <v>39</v>
+      <c r="A3" s="30" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1083,131 +1108,127 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF1E3C9-2443-431B-AB8B-4EF10572E85D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="10.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.75" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="14.75" style="4" customWidth="1"/>
-    <col min="12" max="14" width="10.625" style="4" customWidth="1"/>
-    <col min="15" max="16" width="9.125" style="4" customWidth="1"/>
-    <col min="17" max="18" width="10.625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="12.625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="10.625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="17.75" customWidth="1"/>
+    <col min="1" max="2" width="10.625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.625" style="36" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.75" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.75" style="4" customWidth="1"/>
+    <col min="11" max="13" width="10.625" style="4" customWidth="1"/>
+    <col min="14" max="15" width="9.125" style="4" customWidth="1"/>
+    <col min="16" max="17" width="10.625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="12.625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="10.625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:19" s="3" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="33"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="39"/>
     </row>
-    <row r="2" spans="1:20" ht="95.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="27" t="s">
+    <row r="2" spans="1:19" ht="95.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27"/>
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="D2" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="G2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="N2" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="O2" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="22" t="s">
+      <c r="C3" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="25">
-        <v>45500</v>
-      </c>
-      <c r="G3" s="16">
-        <v>113.06</v>
+      <c r="D3" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="8">
+        <v>37.909999999999997</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -1216,33 +1237,34 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
+      <c r="O3" s="8">
+        <v>5</v>
+      </c>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="13">
-        <f t="shared" ref="T3:T13" si="0">SUM(I3:S3)</f>
-        <v>0</v>
+      <c r="S3" s="13">
+        <f t="shared" ref="S3:S13" si="0">SUM(H3:R3)</f>
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22" t="s">
+      <c r="C4" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="25">
-        <v>45500</v>
-      </c>
-      <c r="G4" s="16">
-        <v>19.760000000000002</v>
+      <c r="D4" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="8">
+        <v>37.909999999999997</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -1251,30 +1273,35 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="O4" s="8">
+        <v>3</v>
+      </c>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="13">
+      <c r="S4" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="17"/>
+      <c r="B5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="9">
+        <v>37.909999999999997</v>
+      </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -1282,26 +1309,35 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
+      <c r="O5" s="9">
+        <v>2</v>
+      </c>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="14">
+      <c r="S5" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="17"/>
+      <c r="B6" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -1309,26 +1345,27 @@
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
+      <c r="O6" s="9">
+        <v>1</v>
+      </c>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="14">
+      <c r="S6" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="17"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -1336,28 +1373,29 @@
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
+      <c r="O7" s="9">
+        <v>8</v>
+      </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="14">
+      <c r="S7" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="22" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="17"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1365,30 +1403,31 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
+      <c r="O8" s="9">
+        <v>9</v>
+      </c>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="14">
+      <c r="S8" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22" t="s">
+      <c r="C9" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="17"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1396,30 +1435,31 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
+      <c r="O9" s="9">
+        <v>10</v>
+      </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="14">
+      <c r="S9" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22" t="s">
+      <c r="C10" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="17"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1431,26 +1471,25 @@
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="14">
+      <c r="S10" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22" t="s">
+      <c r="C11" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="17"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1462,26 +1501,25 @@
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="14">
+      <c r="S11" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22" t="s">
+      <c r="C12" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="17"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1493,22 +1531,21 @@
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="14">
+      <c r="S12" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+    <row r="13" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="18"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -1520,15 +1557,14 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="15">
+      <c r="S13" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="T3:T13">
+  <conditionalFormatting sqref="S3:S13">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1547,12 +1583,12 @@
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T5:T12">
+  <conditionalFormatting sqref="S5:S12">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThanOrEqual">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V16:V17">
+  <conditionalFormatting sqref="U16:U17">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/Stock Screener.xlsx
+++ b/Stock Screener.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Stock_Manager_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8886578-8EA7-4F12-B45A-DE32DDB67431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED1DE89-CA78-4E87-97CD-4F0C644D6E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{84FCC0F4-8E89-43B1-8DEA-F8CA23A588FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{84FCC0F4-8E89-43B1-8DEA-F8CA23A588FC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Steps" sheetId="2" r:id="rId1"/>
-    <sheet name="Screener" sheetId="1" r:id="rId2"/>
+    <sheet name="Screener" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,44 +36,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Ticker</t>
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>Current
-Price
-(Adj. Close)</t>
   </si>
   <si>
     <t>Total
 Score</t>
   </si>
   <si>
-    <t>ON</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Broadcom</t>
-  </si>
-  <si>
     <t>NVDA</t>
   </si>
   <si>
-    <t>ASML</t>
-  </si>
-  <si>
-    <t>Opendoor</t>
-  </si>
-  <si>
-    <t>WELL</t>
-  </si>
-  <si>
     <t>Portfolio</t>
   </si>
   <si>
@@ -85,15 +64,6 @@
   </si>
   <si>
     <t>Nvidia</t>
-  </si>
-  <si>
-    <t>ON Semiconductor</t>
-  </si>
-  <si>
-    <t>OPEN</t>
-  </si>
-  <si>
-    <t>Welltower</t>
   </si>
   <si>
     <t>HPE</t>
@@ -133,13 +103,6 @@
 (0 - 10)</t>
   </si>
   <si>
-    <t>Stock Manager
-Price
-vs.
-Graham No.
-(0 - 10)</t>
-  </si>
-  <si>
     <t>Yahoo
 Finance
 Porfile
@@ -179,15 +142,6 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>Screener</t>
-  </si>
-  <si>
-    <t>Steps:</t>
-  </si>
-  <si>
-    <t>1. Perform Sector P/E Eevalueation -&gt; https://worldperatio.com/sp-500-sectors/</t>
-  </si>
-  <si>
     <t>Stock Screener</t>
   </si>
   <si>
@@ -213,6 +167,12 @@
   </si>
   <si>
     <t>18.30, 33.49, 23.53</t>
+  </si>
+  <si>
+    <t>Current
+Price
+(Adj. Close)
+(0 - 10)</t>
   </si>
 </sst>
 </file>
@@ -313,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -367,36 +327,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="double">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color auto="1"/>
       </left>
@@ -555,19 +485,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -599,35 +516,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="double">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -636,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -648,105 +537,80 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1076,159 +940,126 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C0C909-86ED-4F20-B482-1769C359BDDC}">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF1E3C9-2443-431B-AB8B-4EF10572E85D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10.625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.75" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.75" style="4" customWidth="1"/>
-    <col min="11" max="13" width="10.625" style="4" customWidth="1"/>
-    <col min="14" max="15" width="9.125" style="4" customWidth="1"/>
-    <col min="16" max="17" width="10.625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="12.625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="10.625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="17.75" customWidth="1"/>
+    <col min="3" max="4" width="20.625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="17.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="4" customWidth="1"/>
+    <col min="10" max="12" width="10.625" style="4" customWidth="1"/>
+    <col min="13" max="14" width="9.125" style="4" customWidth="1"/>
+    <col min="15" max="16" width="10.625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="12.625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="10.625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="39"/>
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="29"/>
     </row>
-    <row r="2" spans="1:19" ht="95.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="1:18" ht="95.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="B3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="8">
+        <v>37.909999999999997</v>
+      </c>
+      <c r="G3" s="14">
         <v>2</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="8">
-        <v>37.909999999999997</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -1236,136 +1067,132 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8">
+      <c r="N3" s="8">
         <v>5</v>
       </c>
+      <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="13">
-        <f t="shared" ref="S3:S13" si="0">SUM(H3:R3)</f>
-        <v>5</v>
+      <c r="R3" s="31">
+        <f>SUM(G3:Q3)</f>
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="8">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="8">
         <v>37.909999999999997</v>
       </c>
+      <c r="G4" s="14"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8">
+      <c r="N4" s="8">
         <v>3</v>
       </c>
+      <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="13">
-        <f t="shared" si="0"/>
+      <c r="R4" s="12">
+        <f t="shared" ref="R4:R12" si="0">SUM(H4:Q4)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="9">
+    <row r="5" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="9">
         <v>37.909999999999997</v>
       </c>
+      <c r="G5" s="15"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9">
+      <c r="N5" s="9">
         <v>2</v>
       </c>
+      <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="14">
+      <c r="R5" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="9" t="s">
-        <v>43</v>
-      </c>
+    <row r="6" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="15"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9">
+      <c r="N6" s="9">
         <v>1</v>
       </c>
+      <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="14">
+      <c r="R6" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="9"/>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -1373,29 +1200,24 @@
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
-      <c r="O7" s="9">
-        <v>8</v>
-      </c>
+      <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="14">
+      <c r="R7" s="13">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="9"/>
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1403,31 +1225,24 @@
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
-      <c r="O8" s="9">
-        <v>9</v>
-      </c>
+      <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="14">
+      <c r="R8" s="13">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="9"/>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1435,31 +1250,24 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
-      <c r="O9" s="9">
-        <v>10</v>
-      </c>
+      <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="14">
+      <c r="R9" s="13">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="9"/>
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1470,26 +1278,21 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="14">
+      <c r="R10" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="9"/>
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1500,26 +1303,21 @@
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="14">
+      <c r="R11" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="9"/>
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1530,42 +1328,14 @@
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="14">
+      <c r="R12" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="S3:S13">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="R3:R12">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1575,20 +1345,20 @@
         <color rgb="FF00B050"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="11" operator="lessThan">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="between">
       <formula>3</formula>
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S5:S12">
+  <conditionalFormatting sqref="R5:R12">
     <cfRule type="cellIs" dxfId="0" priority="6" operator="greaterThanOrEqual">
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U16:U17">
+  <conditionalFormatting sqref="T15:T16">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
